--- a/biology/Histoire de la zoologie et de la botanique/Jules_de_Guerne/Jules_de_Guerne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jules_de_Guerne/Jules_de_Guerne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Germain Maloteau de Guerne dit Baron de Guerne, né le 20 août 1855 à Douai et mort le 21 juin 1931 (à 75 ans) à Paris est un zoologiste et géographe français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est président de la Société zoologique de France en 1890[1].
-La Société zoologique de France attribue depuis 1901 un prix qui porte son nom[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est président de la Société zoologique de France en 1890.
+La Société zoologique de France attribue depuis 1901 un prix qui porte son nom.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur en 1889[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est fait chevalier de la Légion d'honneur en 1889.
 Il est promu commandeur de l'ordre de Saint Grégoire le 16 janvier 1885
 </t>
         </is>
